--- a/data/Excel/OrderCustomer.xlsx
+++ b/data/Excel/OrderCustomer.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\CarShop\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88A617-7BC3-4422-AE92-E568BF148D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45189B0-D98C-40BB-ADE9-5945A5040498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+  <si>
+    <t>Продавец</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Александр Polo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Громов А.А. маг. CarBon </t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>+79374209174</t>
+  </si>
+  <si>
+    <t>Авто</t>
+  </si>
+  <si>
+    <t>Polo3</t>
+  </si>
+  <si>
+    <t>Vin код</t>
+  </si>
+  <si>
+    <t>WVWZZZ6KZVR033454</t>
+  </si>
+  <si>
+    <t>ул.Ново-Терновская, 3</t>
+  </si>
+  <si>
+    <t>8-927-289-34-34</t>
+  </si>
   <si>
     <t>№</t>
   </si>
@@ -42,55 +78,65 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>Авто</t>
-  </si>
-  <si>
-    <t>Vin код</t>
-  </si>
-  <si>
-    <t>Заказ запчастей №</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итого: </t>
-  </si>
-  <si>
-    <t>ИП Громов А.А. маг. "Carbon"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ул.Ново-Терновская, 3 </t>
-  </si>
-  <si>
-    <t>тел: 8-927-289-31-34</t>
-  </si>
-  <si>
-    <t>Продавец</t>
+    <t>Zikmar Z23368R ДАТЧИК ХОЛЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей </t>
+  </si>
+  <si>
+    <t>+79063970659</t>
+  </si>
+  <si>
+    <t>Spark M300</t>
+  </si>
+  <si>
+    <t>XWBMA481JBA525996</t>
+  </si>
+  <si>
+    <t>PEC-E58 PARTS-MALL Провода высоковольтные к-кт</t>
+  </si>
+  <si>
+    <t>Bosch	0 242 135 515	Свеча</t>
+  </si>
+  <si>
+    <t>Заказ №</t>
+  </si>
+  <si>
+    <t>Рушан Забиров</t>
+  </si>
+  <si>
+    <t>+79374050101</t>
+  </si>
+  <si>
+    <t>Nissan Qashqai J10</t>
+  </si>
+  <si>
+    <t>SJNFAAJ10U2856883</t>
+  </si>
+  <si>
+    <t>RAVENOL 4014835795693 SAE 5W-30 4L FDS NEW МОТОРНОЕ МАСЛО</t>
+  </si>
+  <si>
+    <t>FILTRON	 OP 595</t>
+  </si>
+  <si>
+    <t>C24332 MANN Фильтр воздушный</t>
+  </si>
+  <si>
+    <t>81-53592-00 VICTOR REINZ Сальник колен.вала пер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -134,11 +180,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,13 +225,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,14 +514,14 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.85546875"/>
+    <col min="2" max="2" customWidth="true" width="54.28515625"/>
+    <col min="3" max="5" customWidth="true" width="10.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -453,13 +531,13 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
+    <row r="2">
+      <c r="C2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -467,47 +545,40 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B6" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="0">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -516,43 +587,73 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n" s="8">
+        <v>5000.0</v>
+      </c>
+      <c r="E9" t="n" s="8">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n" s="8">
+        <v>700.0</v>
+      </c>
+      <c r="E10" t="n" s="8">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n" s="8">
+        <v>1000.0</v>
+      </c>
+      <c r="E11" t="n" s="8">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n" s="8">
+        <v>680.0</v>
+      </c>
+      <c r="E12" t="n" s="8">
+        <v>680.0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -631,20 +732,16 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2"/>
+    <row r="24">
+      <c r="E24" t="n" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="5"/>
+      <c r="A25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/Excel/OrderCustomer.xlsx
+++ b/data/Excel/OrderCustomer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Продавец</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>81-53592-00 VICTOR REINZ Сальник колен.вала пер</t>
+  </si>
+  <si>
+    <t>покемон</t>
+  </si>
+  <si>
+    <t>56456456</t>
+  </si>
+  <si>
+    <t>покемобиль</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>пэп</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
@@ -536,7 +552,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>3</v>
@@ -561,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>10</v>
@@ -569,15 +585,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
       <c r="B7" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,20 +610,20 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D9" t="n" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="E9" t="n" s="8">
-        <v>5000.0</v>
+      <c r="A9" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D9" t="n" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="E9" t="n" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="10">
@@ -733,7 +755,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24">
-      <c r="E24" t="n" s="8">
+      <c r="E24" t="n" s="9">
         <v>0.0</v>
       </c>
     </row>

--- a/data/Excel/OrderCustomer.xlsx
+++ b/data/Excel/OrderCustomer.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\CarShop\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\projects\CarShop\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45189B0-D98C-40BB-ADE9-5945A5040498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136A7E3-AC1B-458B-B7D4-B47267553455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="29">
   <si>
     <t>Продавец</t>
   </si>
@@ -33,36 +33,30 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Александр Polo</t>
-  </si>
-  <si>
     <t xml:space="preserve">ИП Громов А.А. маг. CarBon </t>
   </si>
   <si>
     <t>Телефон</t>
   </si>
   <si>
-    <t>+79374209174</t>
-  </si>
-  <si>
     <t>Авто</t>
   </si>
   <si>
-    <t>Polo3</t>
-  </si>
-  <si>
     <t>Vin код</t>
   </si>
   <si>
-    <t>WVWZZZ6KZVR033454</t>
-  </si>
-  <si>
     <t>ул.Ново-Терновская, 3</t>
   </si>
   <si>
     <t>8-927-289-34-34</t>
   </si>
   <si>
+    <t>Заказ №</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -78,7 +72,28 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Zikmar Z23368R ДАТЧИК ХОЛЛА</t>
+    <t>Рушан Забиров</t>
+  </si>
+  <si>
+    <t>+79374050101</t>
+  </si>
+  <si>
+    <t>Nissan Qashqai J10</t>
+  </si>
+  <si>
+    <t>SJNFAAJ10U2856883</t>
+  </si>
+  <si>
+    <t>RAVENOL 4014835795693 SAE 5W-30 4L FDS NEW МОТОРНОЕ МАСЛО</t>
+  </si>
+  <si>
+    <t>FILTRON	 OP 595</t>
+  </si>
+  <si>
+    <t>C24332 MANN Фильтр воздушный</t>
+  </si>
+  <si>
+    <t>81-53592-00 VICTOR REINZ Сальник колен.вала пер</t>
   </si>
   <si>
     <t xml:space="preserve">Сергей </t>
@@ -97,48 +112,6 @@
   </si>
   <si>
     <t>Bosch	0 242 135 515	Свеча</t>
-  </si>
-  <si>
-    <t>Заказ №</t>
-  </si>
-  <si>
-    <t>Рушан Забиров</t>
-  </si>
-  <si>
-    <t>+79374050101</t>
-  </si>
-  <si>
-    <t>Nissan Qashqai J10</t>
-  </si>
-  <si>
-    <t>SJNFAAJ10U2856883</t>
-  </si>
-  <si>
-    <t>RAVENOL 4014835795693 SAE 5W-30 4L FDS NEW МОТОРНОЕ МАСЛО</t>
-  </si>
-  <si>
-    <t>FILTRON	 OP 595</t>
-  </si>
-  <si>
-    <t>C24332 MANN Фильтр воздушный</t>
-  </si>
-  <si>
-    <t>81-53592-00 VICTOR REINZ Сальник колен.вала пер</t>
-  </si>
-  <si>
-    <t>покемон</t>
-  </si>
-  <si>
-    <t>56456456</t>
-  </si>
-  <si>
-    <t>покемобиль</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>пэп</t>
   </si>
 </sst>
 </file>
@@ -172,26 +145,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -232,19 +205,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
   </cellXfs>
@@ -530,7 +500,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +519,10 @@
     </row>
     <row r="2">
       <c r="C2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>1.0</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,40 +536,40 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,164 +580,279 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="n" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="D9" t="n" s="9">
-        <v>150.0</v>
-      </c>
-      <c r="E9" t="n" s="9">
-        <v>150.0</v>
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="n">
-        <v>53.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n" s="8">
         <v>1.0</v>
       </c>
       <c r="D10" t="n" s="8">
-        <v>700.0</v>
+        <v>1300.0</v>
       </c>
       <c r="E10" t="n" s="8">
-        <v>700.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="n">
-        <v>54.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n" s="8">
         <v>1.0</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>1000.0</v>
+        <v>340.0</v>
       </c>
       <c r="E11" t="n" s="8">
-        <v>1000.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n">
-        <v>55.0</v>
+      <c r="A12" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n" s="8">
-        <v>680.0</v>
-      </c>
-      <c r="E12" t="n" s="8">
-        <v>680.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
-      <c r="E24" t="n" s="9">
-        <v>0.0</v>
+      <c r="E24" t="n" s="8">
+        <v>1640.0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="3">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>

--- a/data/Excel/OrderCustomer.xlsx
+++ b/data/Excel/OrderCustomer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="59">
   <si>
     <t>Продавец</t>
   </si>
@@ -112,6 +112,96 @@
   </si>
   <si>
     <t>Bosch	0 242 135 515	Свеча</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>+79512993750</t>
+  </si>
+  <si>
+    <t>Focus II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X9FHXXEEDH8G54148 </t>
+  </si>
+  <si>
+    <t>6PK1249ELAST CONTITECH Ремень поликлиновый</t>
+  </si>
+  <si>
+    <t>5PK705ELAST CONTITECH Ремень поликлиновый</t>
+  </si>
+  <si>
+    <t>T36398 GATES Ролик натяжителя 7803-21498</t>
+  </si>
+  <si>
+    <t>15CF54 FORD Масло моторное синтетическое 5W30</t>
+  </si>
+  <si>
+    <t>AG251 GOODWILL Фильтр воздушный FORD</t>
+  </si>
+  <si>
+    <t>MANN W7015	 МАСЛЯНЫЙ ФИЛЬТР</t>
+  </si>
+  <si>
+    <t>Владимир Балябин</t>
+  </si>
+  <si>
+    <t>+79273726066</t>
+  </si>
+  <si>
+    <t>Lifan x60</t>
+  </si>
+  <si>
+    <t>x60</t>
+  </si>
+  <si>
+    <t>CTR	CB0388	Опора шаровая L=R TOYOTA</t>
+  </si>
+  <si>
+    <t>S1001110 LIFAN ОПОРА ДВИГАТЕЛЯ ПЕРЕДНЯЯ</t>
+  </si>
+  <si>
+    <t>MP-342 MASUMA Втулка стабилизатора задн.</t>
+  </si>
+  <si>
+    <t>LF481Q12303324A LIFAN САЛЬНИК ПРИВОДА ПЕРЕДНИЙ R</t>
+  </si>
+  <si>
+    <t>LF481Q12303323A LIFAN САЛЬНИК ПРИВОДА ПЕРЕДНИЙ L</t>
+  </si>
+  <si>
+    <t>Виталий Светкин</t>
+  </si>
+  <si>
+    <t>+79273933391</t>
+  </si>
+  <si>
+    <t>Duster 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X7LHSRHGN60050075   </t>
+  </si>
+  <si>
+    <t>7700500155 RENAULT СВЕЧА ЗАЖИГАНИЯ</t>
+  </si>
+  <si>
+    <t>SP1390 SANGSIN Колодки торм.пер.</t>
+  </si>
+  <si>
+    <t>Николай Андреевич</t>
+  </si>
+  <si>
+    <t>+79273729826</t>
+  </si>
+  <si>
+    <t>Focus 2</t>
+  </si>
+  <si>
+    <t>noVin</t>
+  </si>
+  <si>
+    <t>Gates	T38318	Ролик натяжителя</t>
   </si>
 </sst>
 </file>
@@ -205,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +305,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
   </cellXfs>
@@ -522,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>2</v>
@@ -547,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -558,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>7</v>
@@ -569,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,240 +674,240 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="12" t="n">
         <v>1.0</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n" s="8">
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="n" s="12">
         <v>1.0</v>
       </c>
-      <c r="D10" t="n" s="8">
-        <v>1300.0</v>
-      </c>
-      <c r="E10" t="n" s="8">
-        <v>1300.0</v>
+      <c r="D10" t="n" s="12">
+        <v>8700.0</v>
+      </c>
+      <c r="E10" t="n" s="12">
+        <v>8700.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D11" t="n" s="8">
-        <v>340.0</v>
-      </c>
-      <c r="E11" t="n" s="8">
-        <v>340.0</v>
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="A12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="A16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="A17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="A18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="A19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="A21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="A22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -833,8 +927,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24">
-      <c r="E24" t="n" s="8">
-        <v>1640.0</v>
+      <c r="E24" t="n" s="12">
+        <v>8700.0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/Excel/OrderCustomer.xlsx
+++ b/data/Excel/OrderCustomer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="65">
   <si>
     <t>Продавец</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>Gates	T38318	Ролик натяжителя</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Cruze</t>
+  </si>
+  <si>
+    <t>NSP0196353002 NSP Прокладка крышки клапанной Lacc, Cruze 1.6</t>
+  </si>
+  <si>
+    <t>MerivaB</t>
+  </si>
+  <si>
+    <t>wolsd9em7e4089853</t>
+  </si>
+  <si>
+    <t>Патрубок системы охлаждения GM 25193922</t>
   </si>
 </sst>
 </file>
@@ -295,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +323,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
@@ -616,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>2</v>
@@ -641,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -652,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>7</v>
@@ -663,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -674,240 +694,240 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="14" t="n">
         <v>1.0</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="n" s="12">
+      <c r="B10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="n" s="14">
         <v>1.0</v>
       </c>
-      <c r="D10" t="n" s="12">
-        <v>8700.0</v>
-      </c>
-      <c r="E10" t="n" s="12">
-        <v>8700.0</v>
+      <c r="D10" t="n" s="14">
+        <v>2200.0</v>
+      </c>
+      <c r="E10" t="n" s="14">
+        <v>2200.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="A11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="A12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="A13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="A15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="A16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="A17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="A18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="A19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="A20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="A21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="A22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -927,8 +947,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24">
-      <c r="E24" t="n" s="12">
-        <v>8700.0</v>
+      <c r="E24" t="n" s="14">
+        <v>2200.0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/Excel/OrderCustomer.xlsx
+++ b/data/Excel/OrderCustomer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="98">
   <si>
     <t>Продавец</t>
   </si>
@@ -220,6 +220,105 @@
   </si>
   <si>
     <t>Патрубок системы охлаждения GM 25193922</t>
+  </si>
+  <si>
+    <t>Корпус термостата CHEVROLET Cruze NSP NSP0196984103</t>
+  </si>
+  <si>
+    <t>Nissan Xtrail</t>
+  </si>
+  <si>
+    <t>z8ntbnt31ds121454</t>
+  </si>
+  <si>
+    <t>Масло тpансмиссионное АКПП NISSAN ATF CVT FLUID NS-2, 4л.</t>
+  </si>
+  <si>
+    <t>MITSUBISHI	2920A096	КОЛЬЦО УПЛОТНИТЕЛЬНОЕ</t>
+  </si>
+  <si>
+    <t>NISSAN	11026-JA00A	ШАЙБА(мин партия 10шт)</t>
+  </si>
+  <si>
+    <t>NISSAN	317261XF00 Фильтр АКПП NISSAN</t>
+  </si>
+  <si>
+    <t>NISSAN	KE90799932R	Масло для дифф. (1л) 80W-90 GL5</t>
+  </si>
+  <si>
+    <t>NISSAN	KE90090042R	МАСЛО МОТОРНОЕ 5W40 5Л</t>
+  </si>
+  <si>
+    <t>NISSAN	A52089F60ARV	ФИЛЬТР МАСЛЯНЫЙ</t>
+  </si>
+  <si>
+    <t>NISSAN	1102601M02	Шайба пробки поддона</t>
+  </si>
+  <si>
+    <t>NISSAN	31397-1XF0C	ПРОКЛАДКА АКПП*</t>
+  </si>
+  <si>
+    <t>Бачок расширительный CHEVROLET Cruze NSP NSP0113256823</t>
+  </si>
+  <si>
+    <t>Александр Бондаренко</t>
+  </si>
+  <si>
+    <t>+79273788323</t>
+  </si>
+  <si>
+    <t>Lanos 1.5</t>
+  </si>
+  <si>
+    <t>Y6DTF69Y070061544</t>
+  </si>
+  <si>
+    <t>GTB0020 GMB Ролик ГРМ</t>
+  </si>
+  <si>
+    <t>5310XS GATES Зубчатый ремень привода ГРМ</t>
+  </si>
+  <si>
+    <t>LYNXauto LX700 Щетка стеклоочистителя гибридная 700 мм</t>
+  </si>
+  <si>
+    <t>LYNXauto LX550 Щетка стеклоочистителя гибридная 550 мм</t>
+  </si>
+  <si>
+    <t>55596898 ПАТРУБОК ОХЛ.МАСЛА, 55565952 [ORG]</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>+79530220100</t>
+  </si>
+  <si>
+    <t>Rio 3</t>
+  </si>
+  <si>
+    <t>z94cb41bbdr158478</t>
+  </si>
+  <si>
+    <t>TAA2067L TATSUMI Амортизатор передний газовый L</t>
+  </si>
+  <si>
+    <t>TAA2067R TATSUMI Амортизатор передний газовый R</t>
+  </si>
+  <si>
+    <t>SAM-K301 MASUMA Опора аморт. пер. L/R</t>
+  </si>
+  <si>
+    <t>Подшипник опоры амортизатора JIKIU BM11001</t>
+  </si>
+  <si>
+    <t>ШРУС наружный Rio седан III (UB) GANZ GIK04030</t>
+  </si>
+  <si>
+    <t>Пыльник рулевой рейки L=R HYUNDAI Solaris/KIA Rio III MANDO TS577400U000</t>
+  </si>
+  <si>
+    <t>NGN V172085644 ATF DEXRON VI 1л (авт. транс. синт. масло) (цвет янтарный)</t>
   </si>
 </sst>
 </file>
@@ -313,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +422,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
@@ -636,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>41.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>7</v>
@@ -683,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,240 +801,240 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="22" t="n">
         <v>1.0</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="n" s="14">
+      <c r="B10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="n" s="22">
         <v>1.0</v>
       </c>
-      <c r="D10" t="n" s="14">
-        <v>2200.0</v>
-      </c>
-      <c r="E10" t="n" s="14">
-        <v>2200.0</v>
+      <c r="D10" t="n" s="22">
+        <v>1400.0</v>
+      </c>
+      <c r="E10" t="n" s="22">
+        <v>1400.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="A12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="A13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="A14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="A15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="A16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="A17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="A18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="A19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="A20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="A21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="A22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -947,8 +1054,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24">
-      <c r="E24" t="n" s="14">
-        <v>2200.0</v>
+      <c r="E24" t="n" s="22">
+        <v>1400.0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
